--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Свойства дефекта" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Список дефектов'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Список дефектов'!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Воспроизводимость</t>
   </si>
@@ -172,9 +172,6 @@
     <t xml:space="preserve">1) Отправляем get запрос с параметром {'q':""}.                                                                           </t>
   </si>
   <si>
-    <t>Порядковый номер страницы, значение по умолчанию</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Отправляем get запрос с параметром {'page': 1, 'country_code': 'ru'}.                                                                       </t>
   </si>
   <si>
@@ -206,6 +203,100 @@
   </si>
   <si>
     <t xml:space="preserve">1) Отправляем get запрос с параметром {'page': 0}.   2) Ожидаем сообщения об ошибке значения                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'Днепропетровск'}. </t>
+  </si>
+  <si>
+    <t>Название региона</t>
+  </si>
+  <si>
+    <t>len(gis.req_get_json(params=params).get("items")) == 1</t>
+  </si>
+  <si>
+    <t>Неверное значение "name" региона "Днепропетровск".</t>
+  </si>
+  <si>
+    <t>country =&gt; name</t>
+  </si>
+  <si>
+    <t>gis.req_get_json(params=params).get("items")[0].get('country').get('name') == 'Киргизия'</t>
+  </si>
+  <si>
+    <t>Кыргызстан</t>
+  </si>
+  <si>
+    <t>Согласно документу ГОСТ 7.67-2003
+(ИСО 3166-1:1997), правильное название "Киргизия"</t>
+  </si>
+  <si>
+    <t>code //код региона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'Санкт-Петербург'}. </t>
+  </si>
+  <si>
+    <t>gis.req_get_json(params=params).get("items").get('code') == 'Saint_Petersburg' or 'SPE'</t>
+  </si>
+  <si>
+    <t>spb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'ош'}. </t>
+  </si>
+  <si>
+    <t>Из-за минимального кол-ва символов нечёткого поиска, невозможно найти город "Ош", кроме как в общей выдаче</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Кол-во элементов на странице, значение по умолчанию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': '12345'}. </t>
+  </si>
+  <si>
+    <t>"Параметр 'q' не может состоять из цифр"</t>
+  </si>
+  <si>
+    <t>len(gis.req_get_json(params=params).get("items")) == 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'Бишкек'}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'новосибирскК'}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Желательно, чтобы небольшие ошибки не препятствовали выдаче результата нечеткого поиска. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'novosibirsk'}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': 'yjdjcb,bhcr'}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Желательно, чтобы выдача работала при случайном вводе на латинице и наоборот. </t>
+  </si>
+  <si>
+    <t>IATA города: SPE. Выдача "код региона" вообще не очень понятна. Что это за коды, по какому нормативному документу они писались? Я не нашёл. Не несёт информативного смысла. Аналогично некорректно выглядят коды регионов Москва, Нижний Новгород и т.д.</t>
+  </si>
+  <si>
+    <t>Уместно было бы добавить "message"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Отправляем get запрос с параметром {'q': '999999999999999999999999999999999999999999999999999999999999999999999999999'}. </t>
+  </si>
+  <si>
+    <t>"Параметр 'q' должен быть не более 30 символов"</t>
+  </si>
+  <si>
+    <t>В задании в таблице "доступные query-параметры" нет информации о выводе данного сообщения. Стоит добавить его так же в response других параметров.</t>
+  </si>
+  <si>
+    <t>Желательно, чтобы выдача работала при транслитерации. Можно включить хотя бы поиск по значению ключа "code"</t>
   </si>
 </sst>
 </file>
@@ -235,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -445,11 +536,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +693,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +1158,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5">
         <v>22</v>
@@ -975,7 +1199,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>37</v>
@@ -984,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>9</v>
@@ -995,7 +1219,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>40</v>
@@ -1013,7 +1237,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>43</v>
@@ -1031,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>44</v>
@@ -1051,10 +1275,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>36</v>
@@ -1066,10 +1290,10 @@
     </row>
     <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="9">
         <v>15</v>
@@ -1084,10 +1308,10 @@
     </row>
     <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="9">
         <v>15</v>
@@ -1102,10 +1326,10 @@
     </row>
     <row r="11" spans="1:8" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
         <v>15</v>
@@ -1118,27 +1342,198 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1152,6 +1547,14 @@
     <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
